--- a/reports/budget_exp_uik.xlsx
+++ b/reports/budget_exp_uik.xlsx
@@ -247,6 +247,79 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -256,89 +329,16 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,284 +643,296 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="9"/>
-    <col min="5" max="5" width="3.140625" style="9" customWidth="1"/>
-    <col min="6" max="9" width="9.140625" style="9"/>
-    <col min="10" max="10" width="11.42578125" style="9" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="3.140625" style="5" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="5"/>
+    <col min="10" max="10" width="11.42578125" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="13" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="14" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="26" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="A18" s="12">
         <v>1</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="34"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="A16:I16"/>
     <mergeCell ref="A17:I17"/>
@@ -929,16 +941,6 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F14:J14"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
